--- a/browser-server/测试文档/压力测试/压测流程.xlsx
+++ b/browser-server/测试文档/压力测试/压测流程.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30240" windowHeight="13040" activeTab="1"/>
+    <workbookView windowWidth="30240" windowHeight="13040" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="压测流程" sheetId="1" r:id="rId1"/>
     <sheet name="编写压测方案" sheetId="2" r:id="rId2"/>
     <sheet name="命令行测试结果说明" sheetId="3" r:id="rId3"/>
+    <sheet name="压测实例" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="104">
   <si>
     <t>序号</t>
   </si>
@@ -296,15 +297,66 @@
   <si>
     <t>369.9/s</t>
   </si>
+  <si>
+    <t>文件</t>
+  </si>
+  <si>
+    <t>描述</t>
+  </si>
+  <si>
+    <t>jmeter配置</t>
+  </si>
+  <si>
+    <t>proxy配置</t>
+  </si>
+  <si>
+    <t>业务服务器配置</t>
+  </si>
+  <si>
+    <t>最大压测线程数量</t>
+  </si>
+  <si>
+    <t>业务端压测分支</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>newHeads.jmx</t>
+  </si>
+  <si>
+    <t>测试newHeads接口</t>
+  </si>
+  <si>
+    <t>2c8g</t>
+  </si>
+  <si>
+    <t>2c4g</t>
+  </si>
+  <si>
+    <t>3-proxy</t>
+  </si>
+  <si>
+    <t>minedTransactions.jmx</t>
+  </si>
+  <si>
+    <t>不同的subscription group的minedTransactions接口</t>
+  </si>
+  <si>
+    <t>4-proxy-test</t>
+  </si>
+  <si>
+    <t>该分支只用于当前测试场景，不能合并到主干分支</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -347,14 +399,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -362,17 +406,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -380,6 +415,22 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -402,6 +453,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -410,23 +468,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -440,31 +492,31 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -483,186 +535,186 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -671,11 +723,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -712,29 +803,20 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,114 +835,99 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -869,60 +936,69 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1321,14 +1397,14 @@
     <col min="3" max="3" width="79.3076923076923" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1339,7 +1415,7 @@
       <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1347,10 +1423,10 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
@@ -1358,10 +1434,10 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="9" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1372,7 +1448,7 @@
       <c r="B5" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1394,7 +1470,7 @@
       <c r="B7" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="10" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1413,8 +1489,8 @@
   <sheetPr/>
   <dimension ref="A1:C30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelCol="2"/>
@@ -1423,14 +1499,14 @@
     <col min="3" max="3" width="62.0769230769231" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:3">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:3">
+      <c r="A1" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -1441,7 +1517,7 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="8" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1452,7 +1528,7 @@
       <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="8" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1525,7 +1601,7 @@
       <c r="B11" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="9" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1536,7 +1612,7 @@
       <c r="B12" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="9" t="s">
         <v>31</v>
       </c>
     </row>
@@ -1659,7 +1735,7 @@
       <c r="B24" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -1689,7 +1765,7 @@
       <c r="B27" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="8" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1745,41 +1821,41 @@
     <col min="22" max="22" width="17.6153846153846" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:22">
-      <c r="A1" s="1" t="s">
+    <row r="1" s="5" customFormat="1" spans="1:22">
+      <c r="A1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="R1" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="T1" s="5" t="s">
         <v>67</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="V1" s="5" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1796,7 +1872,7 @@
       <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="3">
+      <c r="E2" s="6">
         <v>1.15740740740741e-5</v>
       </c>
       <c r="F2" t="s">
@@ -1829,7 +1905,7 @@
       <c r="O2">
         <v>0</v>
       </c>
-      <c r="P2" s="4">
+      <c r="P2" s="7">
         <v>0</v>
       </c>
       <c r="Q2" t="s">
@@ -1864,7 +1940,7 @@
       <c r="D3" t="s">
         <v>71</v>
       </c>
-      <c r="E3" s="3">
+      <c r="E3" s="6">
         <v>0.000300925925925926</v>
       </c>
       <c r="F3" t="s">
@@ -1897,7 +1973,7 @@
       <c r="O3">
         <v>0</v>
       </c>
-      <c r="P3" s="4">
+      <c r="P3" s="7">
         <v>0</v>
       </c>
       <c r="Q3" t="s">
@@ -1932,7 +2008,7 @@
       <c r="D4" t="s">
         <v>71</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="6">
         <v>0.0003125</v>
       </c>
       <c r="F4" t="s">
@@ -1965,7 +2041,7 @@
       <c r="O4">
         <v>0</v>
       </c>
-      <c r="P4" s="4">
+      <c r="P4" s="7">
         <v>0</v>
       </c>
     </row>
@@ -1982,7 +2058,7 @@
       <c r="D5" t="s">
         <v>71</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="6">
         <v>0.000347222222222222</v>
       </c>
       <c r="F5" t="s">
@@ -2015,7 +2091,7 @@
       <c r="O5">
         <v>0</v>
       </c>
-      <c r="P5" s="4">
+      <c r="P5" s="7">
         <v>0</v>
       </c>
       <c r="Q5" t="s">
@@ -2050,7 +2126,7 @@
       <c r="D6" t="s">
         <v>71</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="6">
         <v>0.000659722222222222</v>
       </c>
       <c r="F6" t="s">
@@ -2083,7 +2159,7 @@
       <c r="O6">
         <v>0</v>
       </c>
-      <c r="P6" s="4">
+      <c r="P6" s="7">
         <v>0</v>
       </c>
     </row>
@@ -2100,7 +2176,7 @@
       <c r="D7" t="s">
         <v>71</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="6">
         <v>0.000347222222222222</v>
       </c>
       <c r="F7" t="s">
@@ -2133,7 +2209,7 @@
       <c r="O7">
         <v>0</v>
       </c>
-      <c r="P7" s="4">
+      <c r="P7" s="7">
         <v>0</v>
       </c>
       <c r="Q7" t="s">
@@ -2168,7 +2244,7 @@
       <c r="D8" t="s">
         <v>71</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="6">
         <v>0.00100694444444444</v>
       </c>
       <c r="F8" t="s">
@@ -2201,8 +2277,111 @@
       <c r="O8">
         <v>0</v>
       </c>
-      <c r="P8" s="4">
-        <v>0</v>
+      <c r="P8" s="7">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.23076923076923" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="7"/>
+  <cols>
+    <col min="1" max="1" width="23.6153846153846" customWidth="1"/>
+    <col min="2" max="2" width="52.6923076923077" customWidth="1"/>
+    <col min="3" max="3" width="11.6923076923077" customWidth="1"/>
+    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="5" max="5" width="17.6153846153846" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
+    <col min="7" max="7" width="17.6153846153846" customWidth="1"/>
+    <col min="8" max="8" width="53.9230769230769" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" s="1" customFormat="1" spans="1:8">
+      <c r="A1" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="4">
+        <v>5000</v>
+      </c>
+      <c r="G3" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
   </sheetData>
